--- a/DatosEspeciales-Afrobolivianos.xlsx
+++ b/DatosEspeciales-Afrobolivianos.xlsx
@@ -4,25 +4,25 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="ESPECIALES-A" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ESPECIALES-I" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ESPECIALES-CO" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="ESPECIALES-CP" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="ESPECIALES-SY" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="ESPECIALES-NY" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="ESPECIALES-B" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="ESPECIALES-C" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="ESPECIALES-I" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="ESPECIALES-Y" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="ESPECIALES-SY" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="ESPECIALES-LP" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="t2cUzc900IaCsDY0fKcou1AfsLrLmZkJybiq+UfYAos="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="FMArZ+/cM9oG29KNYmzFPV4l6sjypcDwTOB3PMQAc2U="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
   <si>
     <t>Año</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Nacimientos</t>
+  </si>
+  <si>
+    <t>Adolescentes</t>
   </si>
   <si>
     <t>10-14</t>
@@ -72,11 +75,6 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -85,34 +83,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FF4472C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E2F3"/>
-        <bgColor rgb="FFD9E2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FFB4C6E7"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border/>
     <border>
       <top style="thin">
@@ -120,6 +105,14 @@
       </top>
       <bottom style="thin">
         <color rgb="FFD9E2F3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FFDEEAF6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
       </bottom>
     </border>
     <border>
@@ -142,26 +135,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -211,27 +202,27 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
+    <tableStyle count="3" pivot="0" name="ESPECIALES-B-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="ESPECIALES-C-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
     <tableStyle count="3" pivot="0" name="ESPECIALES-I-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="ESPECIALES-CO-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="ESPECIALES-CP-style">
+    <tableStyle count="3" pivot="0" name="ESPECIALES-Y-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="ESPECIALES-SY-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="ESPECIALES-NY-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -274,112 +265,119 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H6" displayName="Table_1" name="Table_1" id="1">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I6" displayName="Table_1" name="Table_1" id="1">
+  <tableColumns count="9">
     <tableColumn name="Año" id="1"/>
     <tableColumn name="Mujeres Fertiles" id="2"/>
     <tableColumn name="Embarazos" id="3"/>
     <tableColumn name="Abortos" id="4"/>
     <tableColumn name="Partos" id="5"/>
     <tableColumn name="Nacimientos" id="6"/>
-    <tableColumn name="10-14" id="7"/>
-    <tableColumn name="15-19" id="8"/>
+    <tableColumn name="Adolescentes" id="7"/>
+    <tableColumn name="10-14" id="8"/>
+    <tableColumn name="15-19" id="9"/>
   </tableColumns>
   <tableStyleInfo name="ESPECIALES-A-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H6" displayName="Table_2" name="Table_2" id="2">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I6" displayName="Table_2" name="Table_2" id="2">
+  <tableColumns count="9">
     <tableColumn name="Año" id="1"/>
     <tableColumn name="Mujeres Fertiles" id="2"/>
     <tableColumn name="Embarazos" id="3"/>
     <tableColumn name="Abortos" id="4"/>
     <tableColumn name="Partos" id="5"/>
     <tableColumn name="Nacimientos" id="6"/>
-    <tableColumn name="10-14" id="7"/>
-    <tableColumn name="15-19" id="8"/>
+    <tableColumn name="Adolescentes" id="7"/>
+    <tableColumn name="10-14" id="8"/>
+    <tableColumn name="15-19" id="9"/>
   </tableColumns>
-  <tableStyleInfo name="ESPECIALES-I-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="ESPECIALES-B-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H6" displayName="Table_3" name="Table_3" id="3">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I6" displayName="Table_3" name="Table_3" id="3">
+  <tableColumns count="9">
     <tableColumn name="Año" id="1"/>
     <tableColumn name="Mujeres Fertiles" id="2"/>
     <tableColumn name="Embarazos" id="3"/>
     <tableColumn name="Abortos" id="4"/>
     <tableColumn name="Partos" id="5"/>
     <tableColumn name="Nacimientos" id="6"/>
-    <tableColumn name="10-14" id="7"/>
-    <tableColumn name="15-19" id="8"/>
+    <tableColumn name="Adolescentes" id="7"/>
+    <tableColumn name="10-14" id="8"/>
+    <tableColumn name="15-19" id="9"/>
   </tableColumns>
-  <tableStyleInfo name="ESPECIALES-CO-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="ESPECIALES-C-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H6" displayName="Table_4" name="Table_4" id="4">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I6" displayName="Table_4" name="Table_4" id="4">
+  <tableColumns count="9">
     <tableColumn name="Año" id="1"/>
     <tableColumn name="Mujeres Fertiles" id="2"/>
     <tableColumn name="Embarazos" id="3"/>
     <tableColumn name="Abortos" id="4"/>
     <tableColumn name="Partos" id="5"/>
     <tableColumn name="Nacimientos" id="6"/>
-    <tableColumn name="10-14" id="7"/>
-    <tableColumn name="15-19" id="8"/>
+    <tableColumn name="Adolescentes" id="7"/>
+    <tableColumn name="10-14" id="8"/>
+    <tableColumn name="15-19" id="9"/>
   </tableColumns>
-  <tableStyleInfo name="ESPECIALES-CP-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="ESPECIALES-I-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H6" displayName="Table_5" name="Table_5" id="5">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I6" displayName="Table_5" name="Table_5" id="5">
+  <tableColumns count="9">
     <tableColumn name="Año" id="1"/>
     <tableColumn name="Mujeres Fertiles" id="2"/>
     <tableColumn name="Embarazos" id="3"/>
     <tableColumn name="Abortos" id="4"/>
     <tableColumn name="Partos" id="5"/>
     <tableColumn name="Nacimientos" id="6"/>
-    <tableColumn name="10-14" id="7"/>
-    <tableColumn name="15-19" id="8"/>
+    <tableColumn name="Adolescentes" id="7"/>
+    <tableColumn name="10-14" id="8"/>
+    <tableColumn name="15-19" id="9"/>
   </tableColumns>
-  <tableStyleInfo name="ESPECIALES-SY-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="ESPECIALES-Y-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H6" displayName="Table_6" name="Table_6" id="6">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I6" displayName="Table_6" name="Table_6" id="6">
+  <tableColumns count="9">
     <tableColumn name="Año" id="1"/>
     <tableColumn name="Mujeres Fertiles" id="2"/>
     <tableColumn name="Embarazos" id="3"/>
     <tableColumn name="Abortos" id="4"/>
     <tableColumn name="Partos" id="5"/>
     <tableColumn name="Nacimientos" id="6"/>
-    <tableColumn name="10-14" id="7"/>
-    <tableColumn name="15-19" id="8"/>
+    <tableColumn name="Adolescentes" id="7"/>
+    <tableColumn name="10-14" id="8"/>
+    <tableColumn name="15-19" id="9"/>
   </tableColumns>
-  <tableStyleInfo name="ESPECIALES-NY-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="ESPECIALES-SY-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H6" displayName="Table_7" name="Table_7" id="7">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I6" displayName="Table_7" name="Table_7" id="7">
+  <tableColumns count="9">
     <tableColumn name="Año" id="1"/>
     <tableColumn name="Mujeres Fertiles" id="2"/>
     <tableColumn name="Embarazos" id="3"/>
     <tableColumn name="Abortos" id="4"/>
     <tableColumn name="Partos" id="5"/>
     <tableColumn name="Nacimientos" id="6"/>
-    <tableColumn name="10-14" id="7"/>
-    <tableColumn name="15-19" id="8"/>
+    <tableColumn name="Adolescentes" id="7"/>
+    <tableColumn name="10-14" id="8"/>
+    <tableColumn name="15-19" id="9"/>
   </tableColumns>
   <tableStyleInfo name="ESPECIALES-LP-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -589,7 +587,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col customWidth="1" min="1" max="26" width="10.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -611,145 +609,171 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>9349.0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1058.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>65.0</v>
       </c>
-      <c r="E2" s="5">
-        <v>788.0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>790.0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2037.0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1976.0</v>
+      <c r="E2" s="4">
+        <v>789.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>970.0</v>
+      </c>
+      <c r="G2" s="3">
+        <f>'ESPECIALES-A'!$H2+'ESPECIALES-A'!$H2</f>
+        <v>3698</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1849.0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1787.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>9494.0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1054.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>65.0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>786.0</v>
       </c>
-      <c r="F3" s="5">
-        <v>787.0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2045.0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1975.0</v>
+      <c r="F3" s="4">
+        <v>878.0</v>
+      </c>
+      <c r="G3" s="3">
+        <f>'ESPECIALES-A'!$H3+'ESPECIALES-A'!$H3</f>
+        <v>3700</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1850.0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1801.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>9631.0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>1083.0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>64.0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="3">
         <v>773.0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>770.0</v>
       </c>
-      <c r="G4" s="6">
-        <v>2051.0</v>
+      <c r="G4" s="3">
+        <f>'ESPECIALES-A'!$H4+'ESPECIALES-A'!$H4</f>
+        <v>3704</v>
       </c>
       <c r="H4" s="6">
-        <v>1978.0</v>
+        <v>1852.0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1815.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2022.0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>9768.0</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>1205.0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>10.0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>1075.0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>1063.0</v>
       </c>
-      <c r="G5" s="7">
-        <v>2061.0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1982.0</v>
+      <c r="G5" s="3">
+        <f>'ESPECIALES-A'!$H5+'ESPECIALES-A'!$H5</f>
+        <v>3694</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1847.0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1825.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2023.0</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>9902.0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>1197.0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>10.0</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>1035.0</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>1056.0</v>
       </c>
-      <c r="G6" s="6">
-        <v>2072.0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1985.0</v>
+      <c r="G6" s="3">
+        <f>'ESPECIALES-A'!$H6+'ESPECIALES-A'!$H6</f>
+        <v>3678</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1839.0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1832.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
@@ -1785,146 +1809,191 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="5">
-        <v>3293.0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>227.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>196.0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>196.0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2037.0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1976.0</v>
+      <c r="B2" s="4">
+        <v>5475.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>634.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>529.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>531.0</v>
+      </c>
+      <c r="G2" s="3">
+        <f>'ESPECIALES-B'!$H2+'ESPECIALES-B'!$H2</f>
+        <v>2404</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1202.0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1138.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="5">
-        <v>3302.0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>226.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>195.0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>195.0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2045.0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1975.0</v>
+      <c r="B3" s="4">
+        <v>5510.0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>632.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>527.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>529.0</v>
+      </c>
+      <c r="G3" s="3">
+        <f>'ESPECIALES-B'!$H3+'ESPECIALES-B'!$H3</f>
+        <v>2388</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1194.0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1138.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="8">
-        <v>3309.0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>232.0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>192.0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>191.0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2051.0</v>
+      <c r="B4" s="5">
+        <v>5543.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>649.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>42.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>519.0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>517.0</v>
+      </c>
+      <c r="G4" s="3">
+        <f>'ESPECIALES-B'!$H4+'ESPECIALES-B'!$H4</f>
+        <v>2366</v>
       </c>
       <c r="H4" s="6">
-        <v>1978.0</v>
+        <v>1183.0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1137.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2022.0</v>
       </c>
-      <c r="B5" s="9">
-        <v>3313.0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>338.0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>26.0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>302.0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>298.0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2061.0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1982.0</v>
+      <c r="B5" s="7">
+        <v>5578.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>635.0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>562.0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>560.0</v>
+      </c>
+      <c r="G5" s="3">
+        <f>'ESPECIALES-B'!$H5+'ESPECIALES-B'!$H5</f>
+        <v>2338</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1169.0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1134.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2023.0</v>
       </c>
-      <c r="B6" s="10">
-        <v>3318.0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>332.0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>26.0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>287.0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>294.0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2072.0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1985.0</v>
+      <c r="B6" s="8">
+        <v>5608.0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>628.0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>543.0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>554.0</v>
+      </c>
+      <c r="G6" s="3">
+        <f>'ESPECIALES-B'!$H6+'ESPECIALES-B'!$H6</f>
+        <v>2308</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1154.0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1128.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -2959,146 +3028,191 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="5">
-        <v>3897.0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>331.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>32.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>399.0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>400.0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2037.0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1976.0</v>
+      <c r="B2" s="4">
+        <v>4422.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>348.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>414.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>408.0</v>
+      </c>
+      <c r="G2" s="12">
+        <f>'ESPECIALES-C'!$H2+'ESPECIALES-C'!$H2</f>
+        <v>1460</v>
+      </c>
+      <c r="H2" s="12">
+        <v>730.0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>770.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="5">
-        <v>3882.0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>330.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>32.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>398.0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>398.0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2045.0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1975.0</v>
+      <c r="B3" s="4">
+        <v>4431.0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>347.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>412.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>412.0</v>
+      </c>
+      <c r="G3" s="12">
+        <f>'ESPECIALES-C'!$H3+'ESPECIALES-C'!$H3</f>
+        <v>1444</v>
+      </c>
+      <c r="H3" s="12">
+        <v>722.0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>766.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="8">
-        <v>3865.0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>339.0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>31.0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>392.0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>389.0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2051.0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1978.0</v>
+      <c r="B4" s="5">
+        <v>4439.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>357.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>78.0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>405.0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>403.0</v>
+      </c>
+      <c r="G4" s="13">
+        <f>'ESPECIALES-C'!$H4+'ESPECIALES-C'!$H4</f>
+        <v>1422</v>
+      </c>
+      <c r="H4" s="14">
+        <v>711.0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>760.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2022.0</v>
       </c>
-      <c r="B5" s="9">
-        <v>3844.0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>333.0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>86.0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>296.0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>294.0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2061.0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1982.0</v>
+      <c r="B5" s="7">
+        <v>4445.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>408.0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>360.0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>360.0</v>
+      </c>
+      <c r="G5" s="13">
+        <f>'ESPECIALES-C'!$H5+'ESPECIALES-C'!$H5</f>
+        <v>1400</v>
+      </c>
+      <c r="H5" s="14">
+        <v>700.0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>754.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2023.0</v>
       </c>
-      <c r="B6" s="10">
-        <v>3826.0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>325.0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>86.0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>281.0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>287.0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2072.0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1985.0</v>
+      <c r="B6" s="8">
+        <v>4444.0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>402.0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>348.0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>354.0</v>
+      </c>
+      <c r="G6" s="12">
+        <f>'ESPECIALES-C'!$H6+'ESPECIALES-C'!$H6</f>
+        <v>1378</v>
+      </c>
+      <c r="H6" s="12">
+        <v>689.0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>748.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -4133,146 +4247,191 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="5">
-        <v>3872.0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>407.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>14.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>171.0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>171.0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2037.0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1976.0</v>
+      <c r="B2" s="4">
+        <v>3293.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>227.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>196.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>193.0</v>
+      </c>
+      <c r="G2" s="12">
+        <f>'ESPECIALES-I'!$H2+'ESPECIALES-I'!$H2</f>
+        <v>1180</v>
+      </c>
+      <c r="H2" s="12">
+        <v>590.0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>550.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="5">
-        <v>3895.0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>405.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>14.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>170.0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>170.0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2045.0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1975.0</v>
+      <c r="B3" s="4">
+        <v>3302.0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>226.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>195.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>195.0</v>
+      </c>
+      <c r="G3" s="12">
+        <f>'ESPECIALES-I'!$H3+'ESPECIALES-I'!$H3</f>
+        <v>1164</v>
+      </c>
+      <c r="H3" s="12">
+        <v>582.0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>547.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="8">
-        <v>3917.0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>416.0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>14.0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>167.0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>166.0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2051.0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1978.0</v>
+      <c r="B4" s="5">
+        <v>3309.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>232.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>192.0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>191.0</v>
+      </c>
+      <c r="G4" s="13">
+        <f>'ESPECIALES-I'!$H4+'ESPECIALES-I'!$H4</f>
+        <v>1150</v>
+      </c>
+      <c r="H4" s="14">
+        <v>575.0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>545.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2022.0</v>
       </c>
-      <c r="B5" s="9">
-        <v>3936.0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>314.0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>278.0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>276.0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2061.0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1982.0</v>
+      <c r="B5" s="7">
+        <v>3313.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>338.0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>302.0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>298.0</v>
+      </c>
+      <c r="G5" s="13">
+        <f>'ESPECIALES-I'!$H5+'ESPECIALES-I'!$H5</f>
+        <v>1132</v>
+      </c>
+      <c r="H5" s="14">
+        <v>566.0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>540.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2023.0</v>
       </c>
-      <c r="B6" s="10">
-        <v>3954.0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>310.0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>268.0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>274.0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2072.0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1985.0</v>
+      <c r="B6" s="8">
+        <v>3318.0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>332.0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>287.0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>294.0</v>
+      </c>
+      <c r="G6" s="12">
+        <f>'ESPECIALES-I'!$H6+'ESPECIALES-I'!$H6</f>
+        <v>1112</v>
+      </c>
+      <c r="H6" s="12">
+        <v>556.0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>535.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -5307,146 +5466,191 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="5">
-        <v>23986.0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2332.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>215.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1978.0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1982.0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2037.0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1976.0</v>
+      <c r="B2" s="4">
+        <v>1447.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="G2" s="12">
+        <f>'ESPECIALES-Y'!$H2+'ESPECIALES-Y'!$I2</f>
+        <v>445</v>
+      </c>
+      <c r="H2" s="12">
+        <v>235.0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>210.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="5">
-        <v>24196.0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2323.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>214.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1971.0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1974.0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2045.0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1975.0</v>
+      <c r="B3" s="4">
+        <v>1459.0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="G3" s="12">
+        <f>'ESPECIALES-Y'!$H3+'ESPECIALES-Y'!$I3</f>
+        <v>443</v>
+      </c>
+      <c r="H3" s="12">
+        <v>233.0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>210.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="8">
-        <v>24393.0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2387.0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>209.0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1939.0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1391.0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2051.0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1978.0</v>
+      <c r="B4" s="5">
+        <v>1471.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>66.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>50.0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="G4" s="13">
+        <f>'ESPECIALES-Y'!$H4+'ESPECIALES-Y'!$I4</f>
+        <v>441</v>
+      </c>
+      <c r="H4" s="14">
+        <v>231.0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>210.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2022.0</v>
       </c>
-      <c r="B5" s="9">
-        <v>24582.0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2704.0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>62.0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2404.0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2385.0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2061.0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1982.0</v>
+      <c r="B5" s="7">
+        <v>1478.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>118.0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>105.0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="G5" s="13">
+        <f>'ESPECIALES-Y'!$H5+'ESPECIALES-Y'!$I5</f>
+        <v>440</v>
+      </c>
+      <c r="H5" s="14">
+        <v>230.0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>210.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2023.0</v>
       </c>
-      <c r="B6" s="10">
-        <v>24762.0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2676.0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>62.0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2314.0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>2361.0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2072.0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1985.0</v>
+      <c r="B6" s="8">
+        <v>1490.0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>117.0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>101.0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="G6" s="12">
+        <f>'ESPECIALES-Y'!$H6+'ESPECIALES-Y'!$I6</f>
+        <v>436</v>
+      </c>
+      <c r="H6" s="12">
+        <v>226.0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>210.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -6481,145 +6685,170 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="5">
-        <v>7769.0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>738.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>46.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>570.0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>570.0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2037.0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1976.0</v>
+      <c r="B2" s="4">
+        <v>23986.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2332.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>215.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1978.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1982.0</v>
+      </c>
+      <c r="G2" s="12">
+        <f>'ESPECIALES-SY'!$H2+'ESPECIALES-SY'!$H2</f>
+        <v>9212</v>
+      </c>
+      <c r="H2" s="12">
+        <v>4606.0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>4455.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="5">
-        <v>7777.0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>735.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>46.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>568.0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>568.0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2045.0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1975.0</v>
+      <c r="B3" s="4">
+        <v>24196.0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2323.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>214.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1971.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1974.0</v>
+      </c>
+      <c r="G3" s="12">
+        <f>'ESPECIALES-SY'!$H3+'ESPECIALES-SY'!$H3</f>
+        <v>9162</v>
+      </c>
+      <c r="H3" s="12">
+        <v>4581.0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>4462.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="8">
-        <v>7782.0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>755.0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>559.0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>556.0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2051.0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1978.0</v>
+      <c r="B4" s="5">
+        <v>24393.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2387.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>209.0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1939.0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1931.0</v>
+      </c>
+      <c r="G4" s="12">
+        <f>'ESPECIALES-SY'!$H4+'ESPECIALES-SY'!$H4</f>
+        <v>9954</v>
+      </c>
+      <c r="H4" s="12">
+        <v>4977.0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>4467.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2022.0</v>
       </c>
-      <c r="B5" s="9">
-        <v>7780.0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>647.0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>86.0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>574.0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>572.0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2061.0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1982.0</v>
+      <c r="B5" s="7">
+        <v>24582.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2704.0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>62.0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2404.0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2385.0</v>
+      </c>
+      <c r="G5" s="12">
+        <f>'ESPECIALES-SY'!$H5+'ESPECIALES-SY'!$H5</f>
+        <v>9844</v>
+      </c>
+      <c r="H5" s="12">
+        <v>4922.0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>4463.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2023.0</v>
       </c>
-      <c r="B6" s="10">
-        <v>7780.0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>635.0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>86.0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>549.0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>561.0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2072.0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1985.0</v>
+      <c r="B6" s="8">
+        <v>24762.0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2676.0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>62.0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2314.0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2361.0</v>
+      </c>
+      <c r="G6" s="12">
+        <f>'ESPECIALES-SY'!$H6+'ESPECIALES-SY'!$H6</f>
+        <v>9716</v>
+      </c>
+      <c r="H6" s="12">
+        <v>4858.0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>4453.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="L8" s="10"/>
+    </row>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
@@ -7655,145 +7884,171 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>767285.0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>61530.0</v>
       </c>
-      <c r="D2" s="5">
-        <v>4716.0</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="4">
+        <v>4715.0</v>
+      </c>
+      <c r="E2" s="4">
         <v>56810.0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>57024.0</v>
       </c>
-      <c r="G2" s="6">
-        <v>2037.0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1976.0</v>
+      <c r="G2" s="12">
+        <f>'ESPECIALES-LP'!$H2+'ESPECIALES-LP'!$I2</f>
+        <v>277134</v>
+      </c>
+      <c r="H2" s="12">
+        <v>140288.0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>136846.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>776352.0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>61295.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>4691.0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>56599.0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>56803.0</v>
       </c>
-      <c r="G3" s="7">
-        <v>2045.0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1975.0</v>
+      <c r="G3" s="12">
+        <f>'ESPECIALES-LP'!$H3+'ESPECIALES-LP'!$I3</f>
+        <v>277382</v>
+      </c>
+      <c r="H3" s="12">
+        <v>139933.0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>137449.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>785206.0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>62978.0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>4586.0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <v>55691.0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>55558.0</v>
       </c>
-      <c r="G4" s="6">
-        <v>2051.0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1978.0</v>
+      <c r="G4" s="12">
+        <f>'ESPECIALES-LP'!$H4+'ESPECIALES-LP'!$I4</f>
+        <v>282246</v>
+      </c>
+      <c r="H4" s="12">
+        <v>144335.0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>137911.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2022.0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>793883.0</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>62489.0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>4417.0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>55163.0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>55132.0</v>
       </c>
-      <c r="G5" s="7">
-        <v>2061.0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1982.0</v>
+      <c r="G5" s="12">
+        <f>'ESPECIALES-LP'!$H5+'ESPECIALES-LP'!$I5</f>
+        <v>281499</v>
+      </c>
+      <c r="H5" s="12">
+        <v>143270.0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>138229.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2023.0</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>802330.0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>61912.0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>4491.0</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>53765.0</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>54622.0</v>
       </c>
-      <c r="G6" s="6">
-        <v>2072.0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1985.0</v>
+      <c r="G6" s="12">
+        <f>'ESPECIALES-LP'!$H6+'ESPECIALES-LP'!$I6</f>
+        <v>280373</v>
+      </c>
+      <c r="H6" s="12">
+        <v>142013.0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>138360.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
